--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="967">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3179,7 +3179,9 @@
       <c r="A17" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">

--- a/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
+++ b/branches/r5-r4b/CodeSystem-pharmaceutical-dose-form-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
